--- a/UD 5 - Despliegue aplicaciones en LAMP y WAMP/Reto 5/Rubricas/DAW - R5 - Rubrica Tecnica - Despliegue - [2023-24] - BASE.xlsx
+++ b/UD 5 - Despliegue aplicaciones en LAMP y WAMP/Reto 5/Rubricas/DAW - R5 - Rubrica Tecnica - Despliegue - [2023-24] - BASE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Curso 2023-2024\Despliegue [2DAW]\Entregas\Reto 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\borja\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A456BCB3-34D0-4E5E-9A1C-EF4546D4C31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5954E2B6-AE6D-4504-8878-F594348434F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="58">
   <si>
     <t>Explicación</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Practica</t>
   </si>
   <si>
-    <t>Instalación Servidor WAMP</t>
-  </si>
-  <si>
     <t>Despliegue Aplicaciones WAMP/LAMP</t>
   </si>
   <si>
@@ -143,9 +140,6 @@
     <t>http://localhost/peliculas/</t>
   </si>
   <si>
-    <t>Despliegue Servidor LAMP (Remoto)</t>
-  </si>
-  <si>
     <t>Servidor vsftpd instalado en servidor linux</t>
   </si>
   <si>
@@ -165,6 +159,48 @@
   </si>
   <si>
     <t>Explicación de dónde, cómo, etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instalación Servidor WAMP </t>
+  </si>
+  <si>
+    <t>Tarea 5.1 - 6.1. Instalación de un servidor WAMP</t>
+  </si>
+  <si>
+    <t>Tarea 5.1 - 6.2. Instalación de un servidor LAMP</t>
+  </si>
+  <si>
+    <t>Tarea 5.2.1 - 6.3. Despliegue en un servidor local</t>
+  </si>
+  <si>
+    <t>Despliegue Servidor LAMP</t>
+  </si>
+  <si>
+    <t>Tarea 5.2.1 - 6.4. Despliegue en un servidor local</t>
+  </si>
+  <si>
+    <t>Tarea 5.2.1 - 6.5. Servidor OpenSSH</t>
+  </si>
+  <si>
+    <t>Tarea 5.2.2 - 6.6. Despliegue en servidor remoto</t>
+  </si>
+  <si>
+    <t>Tarea 5.3 - 6.7. Despliegue en un servidor de Hosting</t>
+  </si>
+  <si>
+    <t>Si no se consigue, hay que explicar por qué no se ha podido, etc. Y se da por válido</t>
+  </si>
+  <si>
+    <t>Despliegue de aplicaciones en la nube</t>
+  </si>
+  <si>
+    <t>Tarea 5.4 - 6.8. Despliegue en la Nube (Openshift)</t>
+  </si>
+  <si>
+    <t>Cuenta creada en Openshift (o equivalente)</t>
+  </si>
+  <si>
+    <t>Un sencillo 'Hola Mundo'</t>
   </si>
 </sst>
 </file>
@@ -403,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -533,7 +569,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -758,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -776,7 +811,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B1" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="13" x14ac:dyDescent="0.3">
@@ -804,10 +839,10 @@
     <row r="4" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="42" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="15">
         <v>0.4</v>
@@ -817,54 +852,57 @@
     </row>
     <row r="5" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="15">
         <v>0.4</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="15">
         <v>0.4</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="15">
         <v>0.4</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="15">
         <v>0.4</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="13" x14ac:dyDescent="0.3">
@@ -899,56 +937,59 @@
     <row r="12" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
         <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
       </c>
       <c r="D12" s="15">
         <v>0.5</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="15">
         <v>0.5</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="15">
         <v>0.5</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="15">
         <v>0.5</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -974,7 +1015,7 @@
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B19" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="13" x14ac:dyDescent="0.3">
@@ -1001,43 +1042,46 @@
     <row r="22" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A22" s="37"/>
       <c r="B22" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="35" t="s">
         <v>31</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>32</v>
       </c>
       <c r="D22" s="15">
         <v>0.66</v>
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A23" s="37"/>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
       <c r="C23" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" s="15">
         <v>0.66</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A24" s="37"/>
       <c r="C24" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="15">
         <v>0.68</v>
       </c>
       <c r="E24" s="15"/>
-      <c r="F24" s="49" t="s">
-        <v>37</v>
+      <c r="F24" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="13" x14ac:dyDescent="0.3">
@@ -1065,10 +1109,10 @@
     <row r="28" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="37"/>
       <c r="B28" s="42" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D28" s="15">
         <v>0.3</v>
@@ -1076,8 +1120,11 @@
     </row>
     <row r="29" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A29" s="37"/>
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
       <c r="C29" s="35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D29" s="15">
         <v>0.3</v>
@@ -1086,8 +1133,11 @@
     </row>
     <row r="30" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A30" s="37"/>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
       <c r="C30" s="35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D30" s="15">
         <v>0.3</v>
@@ -1096,175 +1146,282 @@
     </row>
     <row r="31" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A31" s="37"/>
-      <c r="C31" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="24" t="s">
-        <v>34</v>
-      </c>
+      <c r="C31" s="35"/>
+      <c r="D31" s="15"/>
+      <c r="F31" s="36"/>
     </row>
     <row r="32" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A32" s="37"/>
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
       <c r="C32" s="35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D32" s="15">
         <v>0.3</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A33" s="37"/>
       <c r="C33" s="35" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D33" s="15">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="E33" s="15"/>
-      <c r="F33" s="49" t="s">
-        <v>37</v>
+      <c r="F33" s="24" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A34" s="37"/>
+      <c r="C34" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="E34" s="15"/>
+      <c r="F34" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="35" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A35" s="37"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D36" s="12">
-        <f>SUM($D22:$D33)</f>
+    </row>
+    <row r="36" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D37" s="12">
+        <f>SUM($D22:$D34)</f>
         <v>3.9999999999999991</v>
       </c>
-      <c r="E36" s="12">
-        <f>SUM($E22:$E33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B37" s="50" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="F38" s="47" t="s">
-        <v>2</v>
+      <c r="E37" s="12">
+        <f>SUM($E22:$E34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="B38" s="49" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A39" s="43"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="15"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="47" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="40" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A40" s="43"/>
-      <c r="B40" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E40" s="15"/>
-      <c r="F40" s="24" t="s">
-        <v>45</v>
-      </c>
+      <c r="C40" s="31"/>
+      <c r="D40" s="15"/>
     </row>
     <row r="41" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A41" s="43"/>
+      <c r="B41" s="42" t="s">
+        <v>40</v>
+      </c>
       <c r="C41" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="8">
-        <v>0.5</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D41" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="E41" s="15"/>
       <c r="F41" s="24" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A42" s="43"/>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
       <c r="C42" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="F42" s="24" t="s">
         <v>33</v>
-      </c>
-      <c r="D42" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F42" s="24" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A43" s="43"/>
       <c r="C43" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D43" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F43" s="49" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="D43" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A44" s="43"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="15"/>
+      <c r="C44" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="F44" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="45" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A45" s="43"/>
+      <c r="C45" s="35"/>
+      <c r="F45"/>
     </row>
     <row r="46" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D47" s="12">
-        <f>SUM($D40:$D44)</f>
+      <c r="C46" s="35"/>
+      <c r="D46" s="15"/>
+      <c r="F46" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="A47" s="43"/>
+    </row>
+    <row r="48" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D49" s="12">
+        <f>SUM($D41:$D46)</f>
+        <v>1.3</v>
+      </c>
+      <c r="E49" s="12">
+        <f>SUM($E41:$E46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="B50" s="49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="12">
-        <f>SUM($E40:$E44)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="D48" s="29">
-        <f>D$18 + D$36 + D$47</f>
-        <v>10</v>
-      </c>
-      <c r="E48" s="29">
-        <f>E$18 + E$36 + E$47</f>
+    </row>
+    <row r="52" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="A52" s="43"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="15"/>
+    </row>
+    <row r="53" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="A53" s="43"/>
+      <c r="B53" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="E53" s="15"/>
+      <c r="F53" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="A54" s="43"/>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="A55" s="43"/>
+      <c r="C55" s="35"/>
+      <c r="F55" s="24"/>
+    </row>
+    <row r="56" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="A56" s="43"/>
+      <c r="C56" s="35"/>
+      <c r="F56" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="A57" s="43"/>
+    </row>
+    <row r="58" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D59" s="12">
+        <f>SUM($D53:$D54)</f>
+        <v>0.7</v>
+      </c>
+      <c r="E59" s="12"/>
+    </row>
+    <row r="60" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="D60" s="29">
+        <f>D$18 + D$37 + D$49  + D$59</f>
+        <v>9.9999999999999982</v>
+      </c>
+      <c r="E60" s="29">
+        <f>E$18 + E$37 + E$49  + E$49</f>
         <v>0</v>
       </c>
     </row>
@@ -1449,7 +1606,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="22">
-        <f>Practica!$E$48</f>
+        <f>Practica!$E$60</f>
         <v>0</v>
       </c>
       <c r="C4" s="22">
@@ -1466,7 +1623,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="22">
-        <f>Practica!$E$48</f>
+        <f>Practica!$E$60</f>
         <v>0</v>
       </c>
       <c r="C5" s="22">
@@ -1483,7 +1640,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="22">
-        <f>Practica!$E$48</f>
+        <f>Practica!$E$60</f>
         <v>0</v>
       </c>
       <c r="C6" s="22">

--- a/UD 5 - Despliegue aplicaciones en LAMP y WAMP/Reto 5/Rubricas/DAW - R5 - Rubrica Tecnica - Despliegue - [2023-24] - BASE.xlsx
+++ b/UD 5 - Despliegue aplicaciones en LAMP y WAMP/Reto 5/Rubricas/DAW - R5 - Rubrica Tecnica - Despliegue - [2023-24] - BASE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\borja\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Curso 2024-2025\Despliegue [2DAW]\Entregas\Reto 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5954E2B6-AE6D-4504-8878-F594348434F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9BDCD9-2BD8-4D78-B41B-E18E944CDF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -796,7 +796,7 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1421,7 +1421,7 @@
         <v>9.9999999999999982</v>
       </c>
       <c r="E60" s="29">
-        <f>E$18 + E$37 + E$49  + E$49</f>
+        <f>E$18 + E$37 + E$49  + E$59</f>
         <v>0</v>
       </c>
     </row>
